--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_14-32.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_14-32.xlsx
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>0:0</t>
+  </si>
+  <si>
+    <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
     <t>AWADIST 1000 MG 20 F.C. TABS.</t>
@@ -801,17 +804,17 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -819,7 +822,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -827,13 +830,13 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>66.5</v>
+        <v>30</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10">
@@ -845,7 +848,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -853,17 +856,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>96</v>
+        <v>66.5</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -879,17 +882,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -905,17 +908,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -931,17 +934,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>0.33000000000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -957,17 +960,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -975,7 +978,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -983,17 +986,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1009,17 +1012,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1027,7 +1030,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1035,13 +1038,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
@@ -1053,7 +1056,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1061,17 +1064,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1079,7 +1082,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1087,17 +1090,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>1475</v>
+        <v>34</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1113,17 +1116,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>75</v>
+        <v>1475</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1139,13 +1142,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1165,17 +1168,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1191,17 +1194,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1217,13 +1220,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
@@ -1243,17 +1246,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>221.16</v>
+        <v>51</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1275,11 +1278,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>58</v>
+        <v>221.16</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1295,17 +1298,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1321,17 +1324,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1347,17 +1350,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>28.710000000000001</v>
+        <v>192</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1373,13 +1376,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>18</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
@@ -1391,7 +1394,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1399,17 +1402,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1417,7 +1420,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1425,13 +1428,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
@@ -1443,7 +1446,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1451,7 +1454,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1469,7 +1472,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1477,17 +1480,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1495,7 +1498,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1503,17 +1506,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1521,7 +1524,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1529,17 +1532,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1547,7 +1550,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1555,13 +1558,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1573,7 +1576,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1581,13 +1584,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1599,7 +1602,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1607,13 +1610,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1633,13 +1636,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1647,37 +1650,63 @@
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
-      <c r="K38" s="11">
-        <v>3467.3699999999999</v>
-      </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" ht="17.25" customHeight="1">
-      <c t="s" r="A39" s="12">
+      <c r="A38" s="6">
+        <v>35</v>
+      </c>
+      <c t="s" r="B38" s="7">
         <v>57</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c t="s" r="F39" s="13">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c t="s" r="H38" s="8">
+        <v>51</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9">
+        <v>20</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="K39" s="11">
+        <v>3698.3699999999999</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="12">
         <v>58</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
-      <c t="s" r="I39" s="15">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c t="s" r="F40" s="13">
         <v>59</v>
       </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c t="s" r="I40" s="15">
+        <v>60</v>
+      </c>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="116">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1787,10 +1816,13 @@
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:N40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
